--- a/encode_pairs.xlsx
+++ b/encode_pairs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vera/Documents/SEED/PsychoPy_Experiments/SEED_Full_draft/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vera/Documents/GitHub/SEED/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035A08CA-6F7E-8D42-93C4-8620F0BC82CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD42790-54A1-C948-9C68-A343975E5536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1060" windowWidth="28220" windowHeight="12540" xr2:uid="{3362159E-E323-D04B-86B0-C30BAC9B69B5}"/>
+    <workbookView xWindow="41520" yWindow="940" windowWidth="17580" windowHeight="15220" xr2:uid="{3362159E-E323-D04B-86B0-C30BAC9B69B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="313">
-  <si>
-    <t>scene_encode</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="365">
   <si>
     <t>Scenes_Dataset/airport_A.jpg</t>
   </si>
@@ -975,13 +972,172 @@
   </si>
   <si>
     <t>(300,215)</t>
+  </si>
+  <si>
+    <t>correct_key_AFC</t>
+  </si>
+  <si>
+    <t>down</t>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>Scenes_Dataset/amphitheater_A.jpg</t>
+  </si>
+  <si>
+    <t>(600,348)</t>
+  </si>
+  <si>
+    <t>Scenes_Dataset/warehouse_A.jpg</t>
+  </si>
+  <si>
+    <t>Scenes_Dataset/sewing_workshop_A.jpg</t>
+  </si>
+  <si>
+    <t>Scenes_Dataset/painting_workshop_A.jpg</t>
+  </si>
+  <si>
+    <t>Scenes_Dataset/locker_room_A.jpg</t>
+  </si>
+  <si>
+    <t>(600,491)</t>
+  </si>
+  <si>
+    <t>Scenes_Dataset/library_A.jpg</t>
+  </si>
+  <si>
+    <t>(600,478)</t>
+  </si>
+  <si>
+    <t>Scenes_Dataset/gas_pump_A.jpg</t>
+  </si>
+  <si>
+    <t>Scenes_Dataset/field_A.jpg</t>
+  </si>
+  <si>
+    <t>Scenes_Dataset/tennis_court.jpg</t>
+  </si>
+  <si>
+    <t>Scenes_Dataset/cemetery_A.jpg</t>
+  </si>
+  <si>
+    <t>(600,452)</t>
+  </si>
+  <si>
+    <t>Scenes_Dataset/shopping_center_A.jpg</t>
+  </si>
+  <si>
+    <t>(600,405)</t>
+  </si>
+  <si>
+    <t>Scenes_Dataset/fountain_A.jpg</t>
+  </si>
+  <si>
+    <t>(600,364)</t>
+  </si>
+  <si>
+    <t>Scenes_Dataset/terrace_A.jpg</t>
+  </si>
+  <si>
+    <t>Scenes_Dataset/gymnasium_A.jpg</t>
+  </si>
+  <si>
+    <t>Scenes_Dataset/lake_A.jpg</t>
+  </si>
+  <si>
+    <t>(600,442)</t>
+  </si>
+  <si>
+    <t>Scenes_Dataset/flower_shop_A.jpg</t>
+  </si>
+  <si>
+    <t>Scenes_Dataset/marina_A.jpg</t>
+  </si>
+  <si>
+    <t>Scenes_Dataset/market_A.jpg</t>
+  </si>
+  <si>
+    <t>(600,455)</t>
+  </si>
+  <si>
+    <t>Scenes_Dataset/stage_A.jpg</t>
+  </si>
+  <si>
+    <t>(600,396)</t>
+  </si>
+  <si>
+    <t>Scenes_Dataset/amusement_park_A.jpg</t>
+  </si>
+  <si>
+    <t>Scenes_Dataset/ice_rink_A.jpg</t>
+  </si>
+  <si>
+    <t>Scenes_Dataset/fire_station_A.jpg</t>
+  </si>
+  <si>
+    <t>(600,387)</t>
+  </si>
+  <si>
+    <t>Scenes_Dataset/bedroom_A.jpg</t>
+  </si>
+  <si>
+    <t>Scenes_Dataset/backyard_A.jpg</t>
+  </si>
+  <si>
+    <t>Scenes_Dataset/kiosk_A.jpg</t>
+  </si>
+  <si>
+    <t>(600,456)</t>
+  </si>
+  <si>
+    <t>Scenes_Dataset/river_A.jpg</t>
+  </si>
+  <si>
+    <t>Scenes_Dataset/street_A.jpg</t>
+  </si>
+  <si>
+    <t>Scenes_Dataset/operating_room_A.jpg</t>
+  </si>
+  <si>
+    <t>(600,416)</t>
+  </si>
+  <si>
+    <t>Scenes_Dataset/ballet_room_A.jpg</t>
+  </si>
+  <si>
+    <t>Scenes_Dataset/steam_room_A.jpg</t>
+  </si>
+  <si>
+    <t>condition_old</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>correct_key_old</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>scene</t>
+  </si>
+  <si>
+    <t>jitter_ITI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1006,6 +1162,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1054,7 +1216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1065,6 +1227,8 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1399,1974 +1563,3318 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9664D9-E733-C548-8E73-813AA8405C24}">
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:O94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N62" sqref="N62:N97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="39" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="39.6640625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16" style="5" customWidth="1"/>
+    <col min="8" max="8" width="17.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="39.6640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H1" s="9" t="s">
+      <c r="G1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="J1" s="9" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M1" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>210</v>
+        <v>118</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>263</v>
+        <v>61</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>211</v>
+        <v>119</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G3" t="s">
-        <v>126</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>263</v>
+        <v>62</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="H3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I3" t="s">
+        <v>125</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="N3">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="O3">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>212</v>
+        <v>119</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>263</v>
+        <v>63</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="N4">
+        <v>2.1</v>
+      </c>
+      <c r="O4">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>214</v>
+        <v>181</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G5" t="s">
-        <v>128</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>263</v>
+        <v>64</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="H5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I5" t="s">
+        <v>127</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="N5">
+        <v>2.15</v>
+      </c>
+      <c r="O5">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>213</v>
+        <v>182</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>263</v>
+        <v>65</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="N6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O6">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>215</v>
+        <v>119</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G7" t="s">
-        <v>130</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>263</v>
+        <v>66</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="H7" t="s">
+        <v>121</v>
+      </c>
+      <c r="I7" t="s">
+        <v>129</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="N7">
+        <v>2.25</v>
+      </c>
+      <c r="O7">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>216</v>
+        <v>183</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>263</v>
+        <v>67</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="N8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O8">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>217</v>
+        <v>184</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F9" t="s">
-        <v>122</v>
-      </c>
-      <c r="G9" t="s">
-        <v>132</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>263</v>
+        <v>68</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="H9" t="s">
+        <v>121</v>
+      </c>
+      <c r="I9" t="s">
+        <v>131</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="N9">
+        <v>2.35</v>
+      </c>
+      <c r="O9">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>218</v>
+        <v>185</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>263</v>
+        <v>69</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="N10">
+        <v>2.4</v>
+      </c>
+      <c r="O10">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>219</v>
+        <v>185</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F11" t="s">
-        <v>123</v>
-      </c>
-      <c r="G11" t="s">
-        <v>134</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>263</v>
+        <v>70</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="H11" t="s">
+        <v>122</v>
+      </c>
+      <c r="I11" t="s">
+        <v>133</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="N11">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="O11">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>219</v>
+        <v>119</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>263</v>
+        <v>71</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="N12">
+        <v>2.5</v>
+      </c>
+      <c r="O12">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>220</v>
+        <v>119</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G13" t="s">
-        <v>136</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>263</v>
+        <v>72</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="H13" t="s">
+        <v>121</v>
+      </c>
+      <c r="I13" t="s">
+        <v>135</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="N13">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="O13">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>219</v>
+        <v>185</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>263</v>
+        <v>73</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="N14">
+        <v>2.6</v>
+      </c>
+      <c r="O14">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D15" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>221</v>
+        <v>182</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F15" t="s">
-        <v>122</v>
-      </c>
-      <c r="G15" t="s">
-        <v>138</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>263</v>
+        <v>74</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H15" t="s">
+        <v>121</v>
+      </c>
+      <c r="I15" t="s">
+        <v>137</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="N15">
+        <v>2.65</v>
+      </c>
+      <c r="O15">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>265</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="G16" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="H16" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G16" s="2" t="s">
+      <c r="J16" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K16" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="N16">
+        <v>2.7</v>
+      </c>
+      <c r="O16">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>222</v>
+        <v>119</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F17" t="s">
-        <v>122</v>
-      </c>
-      <c r="G17" t="s">
-        <v>139</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>263</v>
+        <v>75</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H17" t="s">
+        <v>121</v>
+      </c>
+      <c r="I17" t="s">
+        <v>138</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="N17">
+        <v>2.75</v>
+      </c>
+      <c r="O17">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>223</v>
+        <v>119</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>263</v>
+        <v>76</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="N18">
+        <v>2.8</v>
+      </c>
+      <c r="O18">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D19" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>224</v>
+        <v>186</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F19" t="s">
-        <v>123</v>
-      </c>
-      <c r="G19" t="s">
-        <v>141</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>263</v>
+        <v>77</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="H19" t="s">
+        <v>122</v>
+      </c>
+      <c r="I19" t="s">
+        <v>140</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="N19">
+        <v>2.85</v>
+      </c>
+      <c r="O19">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>225</v>
+        <v>185</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>263</v>
+        <v>78</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="N20">
+        <v>2.9</v>
+      </c>
+      <c r="O20">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D21" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>226</v>
+        <v>119</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F21" t="s">
-        <v>123</v>
-      </c>
-      <c r="G21" t="s">
-        <v>143</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>263</v>
+        <v>79</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="H21" t="s">
+        <v>122</v>
+      </c>
+      <c r="I21" t="s">
+        <v>142</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="N21">
+        <v>2.95</v>
+      </c>
+      <c r="O21">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>227</v>
+        <v>187</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>263</v>
+        <v>80</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="N22">
+        <v>3</v>
+      </c>
+      <c r="O22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D23" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>228</v>
+        <v>182</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F23" t="s">
-        <v>123</v>
-      </c>
-      <c r="G23" t="s">
-        <v>145</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>263</v>
+        <v>81</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="H23" t="s">
+        <v>122</v>
+      </c>
+      <c r="I23" t="s">
+        <v>144</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="N23">
+        <v>3.05</v>
+      </c>
+      <c r="O23">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>229</v>
+        <v>188</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>263</v>
+        <v>82</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="N24">
+        <v>3.1</v>
+      </c>
+      <c r="O24">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D25" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>230</v>
+        <v>181</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F25" t="s">
-        <v>123</v>
-      </c>
-      <c r="G25" t="s">
-        <v>147</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>263</v>
+        <v>83</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="H25" t="s">
+        <v>122</v>
+      </c>
+      <c r="I25" t="s">
+        <v>146</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="N25">
+        <v>3.15</v>
+      </c>
+      <c r="O25">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>231</v>
+        <v>119</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>263</v>
+        <v>84</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="N26">
+        <v>3.2</v>
+      </c>
+      <c r="O26">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D27" t="s">
-        <v>86</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>219</v>
+        <v>189</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F27" t="s">
-        <v>123</v>
-      </c>
-      <c r="G27" t="s">
-        <v>149</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>263</v>
+        <v>85</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="H27" t="s">
+        <v>122</v>
+      </c>
+      <c r="I27" t="s">
+        <v>148</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="N27">
+        <v>3.25</v>
+      </c>
+      <c r="O27">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>232</v>
+        <v>190</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>263</v>
+        <v>86</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="N28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>233</v>
+        <v>191</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F29" t="s">
-        <v>123</v>
-      </c>
-      <c r="G29" t="s">
-        <v>151</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>263</v>
+        <v>87</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="H29" t="s">
+        <v>122</v>
+      </c>
+      <c r="I29" t="s">
+        <v>150</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+        <v>287</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="M29" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="N29">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>234</v>
+        <v>192</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>263</v>
+        <v>88</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+        <v>288</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="N30">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D31" t="s">
-        <v>90</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>235</v>
+        <v>194</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F31" t="s">
-        <v>122</v>
-      </c>
-      <c r="G31" t="s">
-        <v>262</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>263</v>
+        <v>89</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="H31" t="s">
+        <v>121</v>
+      </c>
+      <c r="I31" t="s">
+        <v>261</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="M31" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="N31">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>231</v>
+        <v>193</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>264</v>
+        <v>90</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="N32">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D33" t="s">
-        <v>92</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>236</v>
+        <v>118</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F33" t="s">
-        <v>122</v>
-      </c>
-      <c r="G33" t="s">
-        <v>154</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>264</v>
+        <v>91</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="H33" t="s">
+        <v>121</v>
+      </c>
+      <c r="I33" t="s">
+        <v>153</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="N33">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>237</v>
+        <v>185</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>264</v>
+        <v>92</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="N34">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D35" t="s">
-        <v>94</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>231</v>
+        <v>195</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F35" t="s">
-        <v>122</v>
-      </c>
-      <c r="G35" t="s">
-        <v>156</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>264</v>
+        <v>93</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="H35" t="s">
+        <v>121</v>
+      </c>
+      <c r="I35" t="s">
+        <v>155</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="N35">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>238</v>
+        <v>196</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>264</v>
+        <v>94</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="N36">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D37" t="s">
-        <v>96</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>239</v>
+        <v>181</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F37" t="s">
-        <v>123</v>
-      </c>
-      <c r="G37" t="s">
-        <v>158</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>264</v>
+        <v>95</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="H37" t="s">
+        <v>122</v>
+      </c>
+      <c r="I37" t="s">
+        <v>157</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="N37">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>219</v>
+        <v>197</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>264</v>
+        <v>96</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="N38">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D39" t="s">
-        <v>98</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>219</v>
+        <v>182</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F39" t="s">
-        <v>123</v>
-      </c>
-      <c r="G39" t="s">
-        <v>160</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>264</v>
+        <v>97</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="H39" t="s">
+        <v>122</v>
+      </c>
+      <c r="I39" t="s">
+        <v>159</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="N39">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>229</v>
+        <v>198</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>264</v>
+        <v>98</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="N40">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D41" t="s">
-        <v>100</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>240</v>
+        <v>119</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F41" t="s">
-        <v>122</v>
-      </c>
-      <c r="G41" t="s">
-        <v>162</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>264</v>
+        <v>99</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="H41" t="s">
+        <v>121</v>
+      </c>
+      <c r="I41" t="s">
+        <v>161</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="N41">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>241</v>
+        <v>183</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>264</v>
+        <v>100</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="M42" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="N42">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D43" t="s">
-        <v>265</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>219</v>
+        <v>185</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F43" t="s">
-        <v>123</v>
-      </c>
-      <c r="G43" t="s">
-        <v>164</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="I43" s="6" t="s">
         <v>264</v>
       </c>
+      <c r="G43" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="H43" t="s">
+        <v>122</v>
+      </c>
+      <c r="I43" t="s">
+        <v>163</v>
+      </c>
       <c r="J43" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="M43" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="N43">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>255</v>
+        <v>199</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>264</v>
+        <v>101</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="N44">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D45" t="s">
-        <v>103</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>242</v>
+        <v>200</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F45" t="s">
-        <v>123</v>
-      </c>
-      <c r="G45" t="s">
-        <v>166</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>264</v>
+        <v>102</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="H45" t="s">
+        <v>122</v>
+      </c>
+      <c r="I45" t="s">
+        <v>165</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="N45">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>243</v>
+        <v>119</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="I46" s="6" t="s">
-        <v>264</v>
+        <v>103</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="N46">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D47" t="s">
-        <v>105</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>243</v>
+        <v>201</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F47" t="s">
-        <v>122</v>
-      </c>
-      <c r="G47" t="s">
-        <v>168</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="I47" s="6" t="s">
-        <v>264</v>
+        <v>104</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="H47" t="s">
+        <v>121</v>
+      </c>
+      <c r="I47" t="s">
+        <v>167</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="M47" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="N47">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>244</v>
+        <v>202</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>264</v>
+        <v>105</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="N48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D49" t="s">
-        <v>107</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>243</v>
+        <v>203</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F49" t="s">
-        <v>122</v>
-      </c>
-      <c r="G49" t="s">
-        <v>170</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>264</v>
+        <v>106</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="H49" t="s">
+        <v>121</v>
+      </c>
+      <c r="I49" t="s">
+        <v>169</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="M49" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="N49">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>245</v>
+        <v>119</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="I50" s="6" t="s">
-        <v>264</v>
+        <v>107</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="M50" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="N50">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D51" t="s">
-        <v>109</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>246</v>
+        <v>119</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F51" t="s">
-        <v>122</v>
-      </c>
-      <c r="G51" t="s">
-        <v>172</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="I51" s="6" t="s">
-        <v>264</v>
+        <v>108</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="H51" t="s">
+        <v>121</v>
+      </c>
+      <c r="I51" t="s">
+        <v>171</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="M51" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="N51">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
+        <v>255</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D52" s="2" t="s">
+      <c r="G52" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I52" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="E52" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>264</v>
-      </c>
       <c r="J52" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="M52" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="N52">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D53" t="s">
-        <v>110</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>248</v>
+        <v>205</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F53" t="s">
-        <v>123</v>
-      </c>
-      <c r="G53" t="s">
-        <v>173</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="I53" s="6" t="s">
-        <v>264</v>
+        <v>109</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="H53" t="s">
+        <v>122</v>
+      </c>
+      <c r="I53" t="s">
+        <v>172</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="N53">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>249</v>
+        <v>185</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="I54" s="6" t="s">
-        <v>264</v>
+        <v>110</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="N54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D55" t="s">
-        <v>112</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>250</v>
+        <v>185</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F55" t="s">
-        <v>123</v>
-      </c>
-      <c r="G55" t="s">
-        <v>175</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="I55" s="6" t="s">
-        <v>264</v>
+        <v>111</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="H55" t="s">
+        <v>122</v>
+      </c>
+      <c r="I55" t="s">
+        <v>174</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="M55" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="N55">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>251</v>
+        <v>206</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="I56" s="6" t="s">
-        <v>264</v>
+        <v>112</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="L56" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="M56" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="N56">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D57" t="s">
-        <v>114</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>252</v>
+        <v>119</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F57" t="s">
-        <v>122</v>
-      </c>
-      <c r="G57" t="s">
-        <v>177</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="I57" s="6" t="s">
-        <v>264</v>
+        <v>113</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="H57" t="s">
+        <v>121</v>
+      </c>
+      <c r="I57" t="s">
+        <v>176</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="M57" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="N57">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>253</v>
+        <v>119</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="I58" s="6" t="s">
-        <v>264</v>
+        <v>114</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="L58" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="M58" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="N58">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D59" t="s">
-        <v>116</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>219</v>
+        <v>207</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F59" t="s">
-        <v>123</v>
-      </c>
-      <c r="G59" t="s">
-        <v>179</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="I59" s="6" t="s">
-        <v>264</v>
+        <v>115</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="H59" t="s">
+        <v>122</v>
+      </c>
+      <c r="I59" t="s">
+        <v>178</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="L59" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="M59" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="N59">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>219</v>
+        <v>200</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="H60" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="I60" s="6" t="s">
-        <v>264</v>
+        <v>116</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="L60" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="M60" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="N60">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D61" t="s">
-        <v>118</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>254</v>
+        <v>119</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
-      </c>
-      <c r="G61" t="s">
+        <v>117</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="H61" t="s">
+        <v>121</v>
+      </c>
+      <c r="I61" t="s">
+        <v>180</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="L61" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="M61" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="N61">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>317</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>319</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>322</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>325</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>327</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>331</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>334</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="H61" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="I61" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="J61" s="6" t="s">
-        <v>263</v>
-      </c>
+      <c r="D75" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>337</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>339</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="N80" s="11"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>343</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="N81" s="11"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="N82" s="11"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>345</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="N83" s="11"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="N84" s="11"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="N85" s="11"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>349</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="N86" s="11"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="N87" s="11"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>352</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="N88" s="11"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="N89" s="11"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>355</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="N90" s="11"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="N91" s="11"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="6"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="6"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/encode_pairs.xlsx
+++ b/encode_pairs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vera/Documents/GitHub/SEED/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD42790-54A1-C948-9C68-A343975E5536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004B3C56-13A9-0948-9391-63517AD27ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41520" yWindow="940" windowWidth="17580" windowHeight="15220" xr2:uid="{3362159E-E323-D04B-86B0-C30BAC9B69B5}"/>
+    <workbookView xWindow="31120" yWindow="1720" windowWidth="16880" windowHeight="17500" xr2:uid="{3362159E-E323-D04B-86B0-C30BAC9B69B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -1216,7 +1216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1228,7 +1228,6 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1563,10 +1562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9664D9-E733-C548-8E73-813AA8405C24}">
-  <dimension ref="A1:O94"/>
+  <dimension ref="A1:N91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N62" sqref="N62:N97"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:XFD61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1580,7 +1579,7 @@
     <col min="13" max="13" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -1624,7 +1623,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1667,11 +1666,8 @@
       <c r="N2">
         <v>2</v>
       </c>
-      <c r="O2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1714,11 +1710,8 @@
       <c r="N3">
         <v>2.0499999999999998</v>
       </c>
-      <c r="O3">
-        <v>2.0499999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1761,11 +1754,8 @@
       <c r="N4">
         <v>2.1</v>
       </c>
-      <c r="O4">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1808,11 +1798,8 @@
       <c r="N5">
         <v>2.15</v>
       </c>
-      <c r="O5">
-        <v>2.15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1855,11 +1842,8 @@
       <c r="N6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="O6">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1902,11 +1886,8 @@
       <c r="N7">
         <v>2.25</v>
       </c>
-      <c r="O7">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1949,11 +1930,8 @@
       <c r="N8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="O8">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1996,11 +1974,8 @@
       <c r="N9">
         <v>2.35</v>
       </c>
-      <c r="O9">
-        <v>2.35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2043,11 +2018,8 @@
       <c r="N10">
         <v>2.4</v>
       </c>
-      <c r="O10">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2090,11 +2062,8 @@
       <c r="N11">
         <v>2.4500000000000002</v>
       </c>
-      <c r="O11">
-        <v>2.4500000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2137,11 +2106,8 @@
       <c r="N12">
         <v>2.5</v>
       </c>
-      <c r="O12">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2184,11 +2150,8 @@
       <c r="N13">
         <v>2.5499999999999998</v>
       </c>
-      <c r="O13">
-        <v>2.5499999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2231,11 +2194,8 @@
       <c r="N14">
         <v>2.6</v>
       </c>
-      <c r="O14">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2278,11 +2238,8 @@
       <c r="N15">
         <v>2.65</v>
       </c>
-      <c r="O15">
-        <v>2.65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2325,11 +2282,8 @@
       <c r="N16">
         <v>2.7</v>
       </c>
-      <c r="O16">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2372,11 +2326,8 @@
       <c r="N17">
         <v>2.75</v>
       </c>
-      <c r="O17">
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2419,11 +2370,8 @@
       <c r="N18">
         <v>2.8</v>
       </c>
-      <c r="O18">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2466,11 +2414,8 @@
       <c r="N19">
         <v>2.85</v>
       </c>
-      <c r="O19">
-        <v>2.85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2513,11 +2458,8 @@
       <c r="N20">
         <v>2.9</v>
       </c>
-      <c r="O20">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2560,11 +2502,8 @@
       <c r="N21">
         <v>2.95</v>
       </c>
-      <c r="O21">
-        <v>2.95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2607,11 +2546,8 @@
       <c r="N22">
         <v>3</v>
       </c>
-      <c r="O22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2654,11 +2590,8 @@
       <c r="N23">
         <v>3.05</v>
       </c>
-      <c r="O23">
-        <v>3.05</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2701,11 +2634,8 @@
       <c r="N24">
         <v>3.1</v>
       </c>
-      <c r="O24">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2748,11 +2678,8 @@
       <c r="N25">
         <v>3.15</v>
       </c>
-      <c r="O25">
-        <v>3.15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2795,11 +2722,8 @@
       <c r="N26">
         <v>3.2</v>
       </c>
-      <c r="O26">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2842,11 +2766,8 @@
       <c r="N27">
         <v>3.25</v>
       </c>
-      <c r="O27">
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2890,7 +2811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2934,7 +2855,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2978,7 +2899,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3022,7 +2943,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4358,6 +4279,9 @@
       <c r="E62" s="3" t="s">
         <v>362</v>
       </c>
+      <c r="N62">
+        <v>2</v>
+      </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63">
@@ -4375,6 +4299,9 @@
       <c r="E63" s="3" t="s">
         <v>362</v>
       </c>
+      <c r="N63">
+        <v>2.0499999999999998</v>
+      </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64">
@@ -4392,6 +4319,9 @@
       <c r="E64" s="3" t="s">
         <v>362</v>
       </c>
+      <c r="N64">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65">
@@ -4409,6 +4339,9 @@
       <c r="E65" s="3" t="s">
         <v>362</v>
       </c>
+      <c r="N65">
+        <v>2.15</v>
+      </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66">
@@ -4426,6 +4359,9 @@
       <c r="E66" s="3" t="s">
         <v>362</v>
       </c>
+      <c r="N66">
+        <v>2.2000000000000002</v>
+      </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67">
@@ -4443,6 +4379,9 @@
       <c r="E67" s="3" t="s">
         <v>362</v>
       </c>
+      <c r="N67">
+        <v>2.25</v>
+      </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68">
@@ -4460,6 +4399,9 @@
       <c r="E68" s="3" t="s">
         <v>362</v>
       </c>
+      <c r="N68">
+        <v>2.2999999999999998</v>
+      </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69">
@@ -4477,6 +4419,9 @@
       <c r="E69" s="3" t="s">
         <v>362</v>
       </c>
+      <c r="N69">
+        <v>2.35</v>
+      </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70">
@@ -4494,6 +4439,9 @@
       <c r="E70" s="3" t="s">
         <v>362</v>
       </c>
+      <c r="N70">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71">
@@ -4511,6 +4459,9 @@
       <c r="E71" s="3" t="s">
         <v>362</v>
       </c>
+      <c r="N71">
+        <v>2.4500000000000002</v>
+      </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72">
@@ -4528,6 +4479,9 @@
       <c r="E72" s="3" t="s">
         <v>362</v>
       </c>
+      <c r="N72">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73">
@@ -4545,6 +4499,9 @@
       <c r="E73" s="3" t="s">
         <v>362</v>
       </c>
+      <c r="N73">
+        <v>2.5499999999999998</v>
+      </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74">
@@ -4562,6 +4519,9 @@
       <c r="E74" s="3" t="s">
         <v>362</v>
       </c>
+      <c r="N74">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75">
@@ -4579,6 +4539,9 @@
       <c r="E75" s="3" t="s">
         <v>362</v>
       </c>
+      <c r="N75">
+        <v>2.65</v>
+      </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76">
@@ -4596,6 +4559,9 @@
       <c r="E76" s="3" t="s">
         <v>362</v>
       </c>
+      <c r="N76">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77">
@@ -4613,6 +4579,9 @@
       <c r="E77" s="3" t="s">
         <v>362</v>
       </c>
+      <c r="N77">
+        <v>2.75</v>
+      </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78">
@@ -4630,6 +4599,9 @@
       <c r="E78" s="3" t="s">
         <v>362</v>
       </c>
+      <c r="N78">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79">
@@ -4647,6 +4619,9 @@
       <c r="E79" s="3" t="s">
         <v>362</v>
       </c>
+      <c r="N79">
+        <v>2.85</v>
+      </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80">
@@ -4664,7 +4639,9 @@
       <c r="E80" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="N80" s="11"/>
+      <c r="N80">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81">
@@ -4682,7 +4659,9 @@
       <c r="E81" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="N81" s="11"/>
+      <c r="N81">
+        <v>2.95</v>
+      </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82">
@@ -4700,7 +4679,9 @@
       <c r="E82" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="N82" s="11"/>
+      <c r="N82">
+        <v>3</v>
+      </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83">
@@ -4718,7 +4699,9 @@
       <c r="E83" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="N83" s="11"/>
+      <c r="N83">
+        <v>3.05</v>
+      </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84">
@@ -4736,7 +4719,9 @@
       <c r="E84" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="N84" s="11"/>
+      <c r="N84">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85">
@@ -4754,7 +4739,9 @@
       <c r="E85" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="N85" s="11"/>
+      <c r="N85">
+        <v>3.15</v>
+      </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86">
@@ -4772,7 +4759,9 @@
       <c r="E86" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="N86" s="11"/>
+      <c r="N86">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87">
@@ -4790,7 +4779,9 @@
       <c r="E87" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="N87" s="11"/>
+      <c r="N87">
+        <v>3.25</v>
+      </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88">
@@ -4808,7 +4799,9 @@
       <c r="E88" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="N88" s="11"/>
+      <c r="N88">
+        <v>2</v>
+      </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89">
@@ -4826,7 +4819,9 @@
       <c r="E89" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="N89" s="11"/>
+      <c r="N89">
+        <v>2.0499999999999998</v>
+      </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90">
@@ -4844,7 +4839,9 @@
       <c r="E90" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="N90" s="11"/>
+      <c r="N90">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91">
@@ -4862,16 +4859,9 @@
       <c r="E91" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="N91" s="11"/>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N92" s="6"/>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N93" s="6"/>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N94" s="6"/>
+      <c r="N91">
+        <v>2.85</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/encode_pairs.xlsx
+++ b/encode_pairs.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vera/Documents/GitHub/SEED/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004B3C56-13A9-0948-9391-63517AD27ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79584AA6-BA15-9947-A937-B65865CB1F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31120" yWindow="1720" windowWidth="16880" windowHeight="17500" xr2:uid="{3362159E-E323-D04B-86B0-C30BAC9B69B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1564,8 +1564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9664D9-E733-C548-8E73-813AA8405C24}">
   <dimension ref="A1:N91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:XFD61"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
